--- a/TestCase/TutorialsNinja Web Application - Test Cases (Complete and Final).xlsx
+++ b/TestCase/TutorialsNinja Web Application - Test Cases (Complete and Final).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{27CFB662-ABAB-4D88-AC5D-BFD398A99BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2DD6EFD2-B23A-4704-BC3E-2FFD38F9067C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="914" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20424,8 +20424,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
